--- a/data/trans_orig/P56S4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1999673B-D0B5-4CFB-BD9F-2F056A1CC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8405FE1E-3112-4899-8435-CA05FF6BCAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEB381AE-6305-4389-A8DE-8B40FBFC2AFB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6769CEB4-845F-420F-A24E-E4E9B655F214}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992C7BE-E0D2-47D7-8BCF-0D846F6C54BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B38196-C34F-45FB-802D-840DC63A51B4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2017,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD660518-535A-439B-86FA-4ADD2B9C3E73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C116D-2D48-42A2-AA0D-F6023086F112}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8405FE1E-3112-4899-8435-CA05FF6BCAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1302E13D-611F-4A26-979D-B5679846F372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6769CEB4-845F-420F-A24E-E4E9B655F214}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3025D1EF-55C2-4610-A1B4-5D2DFB372B71}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B38196-C34F-45FB-802D-840DC63A51B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451338AD-CB0C-4E74-A119-F57FC316A400}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2017,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C116D-2D48-42A2-AA0D-F6023086F112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E724012-1933-4393-8824-5B1D7B325247}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
